--- a/SVD_Files/ADCUI_VK234.xlsx
+++ b/SVD_Files/ADCUI_VK234.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="344">
   <si>
     <t>0x40068000</t>
   </si>
@@ -344,12 +344,6 @@
     <t>PER_FREQ</t>
   </si>
   <si>
-    <t>0: I3_LPF, 1: ADC (before LPF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3: Auto  max(I0, I3), 2: I0, 3: I3 - select I for power calc </t>
-  </si>
-  <si>
     <t>0x034</t>
   </si>
   <si>
@@ -806,15 +800,6 @@
     <t>Длительность такта в канале напряжения</t>
   </si>
   <si>
-    <t>0: 0dB, 6dB, 12dB, 18dB - Preamplifier I0 - x1, x2, x4, x8</t>
-  </si>
-  <si>
-    <t>0: 0dB, 6dB, 12dB, 18dB - Preamplifier V - x1, x2, x4, x8</t>
-  </si>
-  <si>
-    <t>0: 0dB, 6dB, 12dB, 18dB - Preamplifier I3 - x1, x2, x4, x8</t>
-  </si>
-  <si>
     <t>0: noGain, 1: +6dB - I3 Gain - x1, x2</t>
   </si>
   <si>
@@ -1418,6 +1403,27 @@
   </si>
   <si>
     <t>0x11C</t>
+  </si>
+  <si>
+    <t>0: 0dB, 6dB, 12dB, 18dB - PGA I0 - x1, x2, x4, x8</t>
+  </si>
+  <si>
+    <t>0: 0dB, 6dB, 12dB, 18dB - PGA V - x1, x2, x4, x8</t>
+  </si>
+  <si>
+    <t>0: 0dB, 6dB, 12dB, 18dB - PGA I3 - x1, x2, x4, x8</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>0: I3_HPF, 1: ADC (before HPF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3: Auto  max(I0, I3), 1: I0, 2: I3 - select I for power calc </t>
   </si>
 </sst>
 </file>
@@ -1902,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,8 +1932,12 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1942,23 +1952,23 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E4" s="13"/>
       <c r="F4" s="10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="16"/>
       <c r="F5" s="23" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -2032,7 +2042,7 @@
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
@@ -2046,7 +2056,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
@@ -2060,7 +2070,7 @@
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
@@ -2074,7 +2084,7 @@
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="10" t="s">
@@ -2104,8 +2114,9 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2120,6 +2131,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="6"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2131,8 +2143,9 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2146,6 +2159,7 @@
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
@@ -2153,6 +2167,7 @@
       <c r="F18" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2166,6 +2181,7 @@
       <c r="F19" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2179,6 +2195,7 @@
       <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2190,8 +2207,9 @@
         <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2203,8 +2221,9 @@
         <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2218,6 +2237,7 @@
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
@@ -2226,25 +2246,25 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2259,6 +2279,7 @@
       <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2285,6 +2306,7 @@
       <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2298,15 +2320,16 @@
       <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2369,10 +2392,10 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2422,10 +2445,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2437,13 +2460,13 @@
         <v>48</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2469,12 +2492,13 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G42" s="6"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -2483,13 +2507,14 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="6"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -2501,9 +2526,10 @@
         <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G44" s="6"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -2515,10 +2541,10 @@
         <v>54</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -2532,10 +2558,10 @@
         <v>55</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -2549,10 +2575,10 @@
         <v>56</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -2563,12 +2589,13 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="G48" s="6"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2580,9 +2607,10 @@
         <v>57</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>209</v>
+        <v>338</v>
       </c>
       <c r="G49" s="6"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -2597,6 +2625,7 @@
         <v>60</v>
       </c>
       <c r="G50" s="6"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -2605,13 +2634,14 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="1" t="s">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="G51" s="6"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2623,18 +2653,19 @@
         <v>63</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G52" s="6"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -2646,20 +2677,20 @@
         <v>64</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -2684,6 +2715,7 @@
         <v>78</v>
       </c>
       <c r="G56" s="6"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -2698,15 +2730,16 @@
         <v>79</v>
       </c>
       <c r="G57" s="6"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -2718,16 +2751,16 @@
         <v>68</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>9</v>
@@ -2764,16 +2797,16 @@
         <v>71</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>9</v>
@@ -2809,10 +2842,10 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -2824,20 +2857,20 @@
         <v>75</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="3"/>
+      <c r="H66" s="16"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -2862,6 +2895,7 @@
         <v>80</v>
       </c>
       <c r="G67" s="6"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -2876,15 +2910,16 @@
         <v>81</v>
       </c>
       <c r="G68" s="6"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -2896,16 +2931,16 @@
         <v>90</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>9</v>
@@ -2931,16 +2966,16 @@
         <v>91</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>9</v>
@@ -2965,10 +3000,10 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -2980,13 +3015,13 @@
         <v>92</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
@@ -3018,6 +3053,7 @@
         <v>88</v>
       </c>
       <c r="G78" s="6"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -3029,93 +3065,94 @@
         <v>89</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G79" s="6"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -3128,8 +3165,9 @@
         <v>100</v>
       </c>
       <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -3139,90 +3177,94 @@
         <v>99</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G88" s="6"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>4</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>5</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>6</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>7</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G92" s="6"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>8</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
@@ -3232,50 +3274,52 @@
         <v>102</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>29</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="1" t="s">
-        <v>103</v>
+        <v>342</v>
       </c>
       <c r="G95" s="6"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="1" t="s">
-        <v>104</v>
+        <v>343</v>
       </c>
       <c r="G96" s="6"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -3284,16 +3328,16 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="s">
@@ -3307,33 +3351,35 @@
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -3344,16 +3390,16 @@
     </row>
     <row r="104" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="17" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>9</v>
@@ -3373,15 +3419,15 @@
     </row>
     <row r="105" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -3401,11 +3447,11 @@
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="19" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -3426,16 +3472,16 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
@@ -3444,29 +3490,29 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -3475,32 +3521,32 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>9</v>
@@ -3508,32 +3554,32 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>9</v>
@@ -3541,33 +3587,33 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>9</v>
@@ -3575,33 +3621,33 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>9</v>
@@ -3609,32 +3655,32 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>9</v>
@@ -3642,32 +3688,32 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>9</v>
@@ -3675,32 +3721,32 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>9</v>
@@ -3708,25 +3754,25 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,16 +3781,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
@@ -3758,13 +3804,13 @@
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3774,13 +3820,13 @@
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3790,10 +3836,10 @@
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3803,13 +3849,13 @@
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,13 +3865,13 @@
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3835,10 +3881,10 @@
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3848,10 +3894,10 @@
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3861,10 +3907,10 @@
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3874,10 +3920,10 @@
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3887,10 +3933,10 @@
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,10 +3946,10 @@
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3913,10 +3959,10 @@
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,10 +3972,10 @@
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3939,13 +3985,13 @@
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3955,11 +4001,11 @@
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3969,10 +4015,10 @@
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3982,13 +4028,13 @@
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3998,10 +4044,10 @@
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4011,13 +4057,13 @@
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4034,13 +4080,13 @@
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4050,10 +4096,10 @@
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4063,13 +4109,13 @@
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4079,13 +4125,13 @@
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4095,11 +4141,11 @@
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4109,10 +4155,10 @@
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4122,20 +4168,20 @@
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,16 +4190,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3" t="s">
@@ -4162,96 +4208,99 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G162" s="6"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="12"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G163" s="6"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="12"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="G164" s="6"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="12"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="17" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C167" s="17"/>
       <c r="D167" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3" t="s">
@@ -4259,54 +4308,54 @@
       </c>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B168" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G168" s="6"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B169" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3" t="s">
@@ -4314,73 +4363,75 @@
       </c>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B174" s="9"/>
       <c r="C174" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D175" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G177" s="6"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="12"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G178" s="6"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="12"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D179" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/SVD_Files/ADCUI_VK234.xlsx
+++ b/SVD_Files/ADCUI_VK234.xlsx
@@ -54,9 +54,6 @@
     <t>1 - Enable</t>
   </si>
   <si>
-    <t>0: On, 1: Off - LPF on V0 cross zero</t>
-  </si>
-  <si>
     <t>9..11</t>
   </si>
   <si>
@@ -1424,6 +1421,9 @@
   </si>
   <si>
     <t xml:space="preserve">0,3: Auto  max(I0, I3), 1: I0, 2: I3 - select I for power calc </t>
+  </si>
+  <si>
+    <t>0: LPF On, 1: Off - LPF on V0 cross zero</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,10 +1933,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1952,23 +1952,23 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E4" s="13"/>
       <c r="F4" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>287</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>288</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="16"/>
       <c r="F5" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -2042,7 +2042,7 @@
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
@@ -2056,7 +2056,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
@@ -2070,7 +2070,7 @@
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
@@ -2084,7 +2084,7 @@
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="10" t="s">
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -2128,36 +2128,36 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -2165,21 +2165,21 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H19" s="12"/>
     </row>
@@ -2190,10 +2190,10 @@
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -2204,10 +2204,10 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -2218,10 +2218,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -2232,10 +2232,10 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H23" s="12"/>
     </row>
@@ -2246,25 +2246,25 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2274,10 +2274,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H26" s="12"/>
     </row>
@@ -2288,10 +2288,10 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2301,24 +2301,24 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29" s="12"/>
     </row>
@@ -2326,10 +2326,10 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2338,12 +2338,12 @@
     </row>
     <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
@@ -2364,38 +2364,38 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2404,12 +2404,12 @@
     </row>
     <row r="37" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
@@ -2435,20 +2435,20 @@
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2457,16 +2457,16 @@
     </row>
     <row r="41" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2492,10 +2492,10 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="12"/>
@@ -2507,11 +2507,11 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="12"/>
@@ -2523,10 +2523,10 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="12"/>
@@ -2538,13 +2538,13 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -2555,13 +2555,13 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -2572,88 +2572,88 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="12"/>
@@ -2662,10 +2662,10 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -2674,16 +2674,16 @@
     </row>
     <row r="55" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
@@ -2704,30 +2704,30 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="12"/>
@@ -2736,10 +2736,10 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -2748,19 +2748,19 @@
     </row>
     <row r="60" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>9</v>
@@ -2780,33 +2780,33 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>9</v>
@@ -2826,15 +2826,15 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G63" s="6"/>
     </row>
@@ -2842,10 +2842,10 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -2854,16 +2854,16 @@
     </row>
     <row r="66" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
@@ -2884,30 +2884,30 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="12"/>
@@ -2916,10 +2916,10 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -2928,19 +2928,19 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>9</v>
@@ -2949,33 +2949,33 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>9</v>
@@ -2984,15 +2984,15 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -3000,10 +3000,10 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -3012,16 +3012,16 @@
     </row>
     <row r="77" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
@@ -3042,30 +3042,30 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="12"/>
@@ -3074,10 +3074,10 @@
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G80" s="6"/>
     </row>
@@ -3087,19 +3087,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>9</v>
@@ -3108,15 +3108,15 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G83" s="6"/>
     </row>
@@ -3124,10 +3124,10 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3136,16 +3136,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
@@ -3154,30 +3154,30 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="12"/>
@@ -3189,13 +3189,13 @@
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G89" s="6"/>
     </row>
@@ -3206,13 +3206,13 @@
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G90" s="6"/>
     </row>
@@ -3223,11 +3223,11 @@
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="12"/>
@@ -3239,11 +3239,11 @@
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="12"/>
@@ -3255,29 +3255,29 @@
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3287,27 +3287,27 @@
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="12"/>
@@ -3316,10 +3316,10 @@
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -3328,16 +3328,16 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="s">
@@ -3346,29 +3346,29 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="H101" s="12"/>
     </row>
@@ -3376,10 +3376,10 @@
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -3390,16 +3390,16 @@
     </row>
     <row r="104" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>9</v>
@@ -3419,15 +3419,15 @@
     </row>
     <row r="105" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -3447,11 +3447,11 @@
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -3472,16 +3472,16 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
@@ -3490,29 +3490,29 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -3521,32 +3521,32 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>9</v>
@@ -3554,32 +3554,32 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>9</v>
@@ -3587,33 +3587,33 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>9</v>
@@ -3621,33 +3621,33 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>9</v>
@@ -3655,32 +3655,32 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>9</v>
@@ -3688,32 +3688,32 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>9</v>
@@ -3721,32 +3721,32 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>9</v>
@@ -3754,25 +3754,25 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3781,16 +3781,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
@@ -3804,13 +3804,13 @@
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3820,13 +3820,13 @@
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3836,10 +3836,10 @@
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3849,13 +3849,13 @@
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,13 +3865,13 @@
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3881,10 +3881,10 @@
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3894,10 +3894,10 @@
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3907,10 +3907,10 @@
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3920,10 +3920,10 @@
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3933,10 +3933,10 @@
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3946,10 +3946,10 @@
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F139" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,10 +3959,10 @@
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,10 +3972,10 @@
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,13 +3985,13 @@
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4001,11 +4001,11 @@
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,10 +4015,10 @@
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4028,13 +4028,13 @@
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,10 +4044,10 @@
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4057,13 +4057,13 @@
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4080,13 +4080,13 @@
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,10 +4096,10 @@
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4109,13 +4109,13 @@
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,13 +4125,13 @@
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,11 +4141,11 @@
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,10 +4155,10 @@
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F154" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4168,20 +4168,20 @@
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,16 +4190,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3" t="s">
@@ -4208,25 +4208,25 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -4235,12 +4235,12 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3" t="s">
@@ -4251,30 +4251,30 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="12"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="12"/>
@@ -4283,10 +4283,10 @@
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -4296,11 +4296,11 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C167" s="17"/>
       <c r="D167" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3" t="s">
@@ -4310,27 +4310,27 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B168" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B169" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G169" s="6"/>
     </row>
@@ -4338,10 +4338,10 @@
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -4352,10 +4352,10 @@
       <c r="A172" s="3"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3" t="s">
@@ -4366,45 +4366,45 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B174" s="9"/>
       <c r="C174" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G174" s="6"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D175" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3" t="s">
@@ -4415,23 +4415,23 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D178" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="12"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D179" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/SVD_Files/ADCUI_VK234.xlsx
+++ b/SVD_Files/ADCUI_VK234.xlsx
@@ -1537,7 +1537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1545,85 +1545,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1906,2536 +1928,3763 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R179"/>
+  <dimension ref="A1:AH179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AP91" sqref="AP91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="84.42578125" style="1" customWidth="1"/>
-    <col min="7" max="18" width="9.140625" style="1"/>
+    <col min="1" max="3" width="11.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10" style="7" customWidth="1"/>
+    <col min="6" max="6" width="84.42578125" style="7" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E4" s="13"/>
-      <c r="F4" s="10" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+    </row>
+    <row r="5" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-    </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>0</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>5</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="H14" s="18"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="18"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="F18" s="1" t="s">
+      <c r="H17" s="18"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="F18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="18"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="H19" s="18"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
         <v>0.72083333333333333</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="H20" s="18"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="H21" s="18"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="1" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="H22" s="18"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="1" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="H23" s="18"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="9" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="11" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="9" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>27</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="H26" s="18"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>28</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="1" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>29</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="1" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="H28" s="18"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="1" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8" t="s">
+      <c r="H29" s="18"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+    </row>
+    <row r="32" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="1" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="1" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8" t="s">
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+    </row>
+    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="1" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8" t="s">
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+    </row>
+    <row r="41" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>0</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="1" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="G42" s="19"/>
+      <c r="H42" s="18"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>1</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="1" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="1" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="G43" s="19"/>
+      <c r="H43" s="18"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>2</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="1" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="G44" s="19"/>
+      <c r="H44" s="18"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>3</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="1" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="G45" s="19"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>4</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="1" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="G46" s="19"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>5</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="1" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="G47" s="19"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="1" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="G48" s="19"/>
+      <c r="H48" s="18"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="1" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="G49" s="19"/>
+      <c r="H49" s="18"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="1" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="G50" s="19"/>
+      <c r="H50" s="18"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="1" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="18"/>
+      <c r="F51" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="G51" s="19"/>
+      <c r="H51" s="18"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="1" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="8" t="s">
+      <c r="G52" s="19"/>
+      <c r="H52" s="18"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+    </row>
+    <row r="55" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="G55" s="24"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="1" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="G56" s="19"/>
+      <c r="H56" s="18"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="1" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="8" t="s">
+      <c r="G57" s="19"/>
+      <c r="H57" s="18"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+    </row>
+    <row r="60" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="G60" s="24"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="1" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="G61" s="19"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+    </row>
+    <row r="62" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="G62" s="24"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="1" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="8" t="s">
+      <c r="G63" s="19"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+    </row>
+    <row r="66" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3" t="s">
+      <c r="E66" s="6"/>
+      <c r="F66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="G66" s="24"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="1" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="G67" s="19"/>
+      <c r="H67" s="18"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="1" t="s">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8" t="s">
+      <c r="G68" s="19"/>
+      <c r="H68" s="18"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="G71" s="19"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="1" t="s">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="G72" s="19"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="G73" s="19"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="1" t="s">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="8" t="s">
+      <c r="G74" s="19"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+    </row>
+    <row r="77" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="1" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="12"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="G78" s="19"/>
+      <c r="H78" s="18"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="1" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="12"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="8" t="s">
+      <c r="G79" s="19"/>
+      <c r="H79" s="18"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="G80" s="19"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="G82" s="19"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="1" t="s">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="8" t="s">
+      <c r="G83" s="19"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
+      <c r="E86" s="6"/>
+      <c r="F86" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="1" t="s">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="12"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="G87" s="19"/>
+      <c r="H87" s="18"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="1" t="s">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="12"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="G88" s="19"/>
+      <c r="H88" s="18"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
         <v>4</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="1" t="s">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="G89" s="19"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
         <v>5</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="1" t="s">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="G90" s="19"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
         <v>6</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="1" t="s">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="1" t="s">
+      <c r="E91" s="18"/>
+      <c r="F91" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="12"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="G91" s="19"/>
+      <c r="H91" s="18"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
         <v>7</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="1" t="s">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="1" t="s">
+      <c r="E92" s="18"/>
+      <c r="F92" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="12"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="G92" s="19"/>
+      <c r="H92" s="18"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
         <v>8</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="1" t="s">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="1" t="s">
+      <c r="E93" s="18"/>
+      <c r="F93" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="12"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="G93" s="19"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="1" t="s">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
         <v>29</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="1" t="s">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="1" t="s">
+      <c r="E95" s="18"/>
+      <c r="F95" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="12"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="G95" s="19"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="1" t="s">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="1" t="s">
+      <c r="E96" s="18"/>
+      <c r="F96" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="12"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="18"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="8" t="s">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3" t="s">
+      <c r="E99" s="6"/>
+      <c r="F99" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="1" t="s">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H100" s="12"/>
+      <c r="H100" s="18"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="1" t="s">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H101" s="12"/>
+      <c r="H101" s="18"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="8" t="s">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="8"/>
-      <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="17" t="s">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="23"/>
+      <c r="F103" s="23"/>
+    </row>
+    <row r="104" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
+      <c r="B104" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="9"/>
-    </row>
-    <row r="105" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+    </row>
+    <row r="105" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9" t="s">
+      <c r="C105" s="14"/>
+      <c r="D105" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="9" t="s">
+      <c r="E105" s="26"/>
+      <c r="F105" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="9"/>
-    </row>
-    <row r="106" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="19" t="s">
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+    </row>
+    <row r="106" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="E106" s="20"/>
-      <c r="F106" s="19" t="s">
+      <c r="E106" s="26"/>
+      <c r="F106" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="9"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3" t="s">
+      <c r="E108" s="6"/>
+      <c r="F108" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="1" t="s">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3" t="s">
+      <c r="E110" s="6"/>
+      <c r="F110" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="1" t="s">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="1" t="s">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="1" t="s">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E115" s="12"/>
-      <c r="F115" s="1" t="s">
+      <c r="E115" s="18"/>
+      <c r="F115" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B116" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="1" t="s">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="1" t="s">
+      <c r="E117" s="18"/>
+      <c r="F117" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="1" t="s">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="1" t="s">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="1" t="s">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="1" t="s">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="8" t="s">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3" t="s">
+      <c r="E128" s="6"/>
+      <c r="F128" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+      <c r="A129" s="7">
         <v>0</v>
       </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="1" t="s">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="A130" s="7">
         <v>1</v>
       </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="1" t="s">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+      <c r="A131" s="7">
         <v>2</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="1" t="s">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="A132" s="7">
         <v>3</v>
       </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="1" t="s">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133" s="7">
         <v>4</v>
       </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="1" t="s">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="A134" s="7">
         <v>5</v>
       </c>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="1" t="s">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+      <c r="A135" s="7">
         <v>6</v>
       </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="1" t="s">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="A136" s="7">
         <v>7</v>
       </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="1" t="s">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+      <c r="A137" s="7">
         <v>8</v>
       </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="1" t="s">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+      <c r="A138" s="7">
         <v>9</v>
       </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="1" t="s">
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+      <c r="A139" s="7">
         <v>10</v>
       </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="1" t="s">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+      <c r="A140" s="7">
         <v>11</v>
       </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="1" t="s">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="29" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+      <c r="A141" s="7">
         <v>12</v>
       </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="1" t="s">
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+      <c r="A142" s="7">
         <v>13</v>
       </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="1" t="s">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="E142" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="A143" s="7">
         <v>14</v>
       </c>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="1" t="s">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E143" s="12"/>
-      <c r="F143" s="1" t="s">
+      <c r="E143" s="18"/>
+      <c r="F143" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="A144" s="7">
         <v>15</v>
       </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="1" t="s">
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+      <c r="A145" s="7">
         <v>16</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="1" t="s">
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+      <c r="A146" s="7">
         <v>17</v>
       </c>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="1" t="s">
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+      <c r="A147" s="7">
         <v>18</v>
       </c>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="1" t="s">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+      <c r="A148" s="7">
         <v>19</v>
       </c>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+      <c r="A149" s="7">
         <v>20</v>
       </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="1" t="s">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+      <c r="A150" s="7">
         <v>21</v>
       </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="1" t="s">
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+      <c r="A151" s="7">
         <v>22</v>
       </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="1" t="s">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E151" s="12" t="s">
+      <c r="E151" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+      <c r="A152" s="7">
         <v>23</v>
       </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="1" t="s">
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E152" s="12" t="s">
+      <c r="E152" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+      <c r="A153" s="7">
         <v>24</v>
       </c>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="1" t="s">
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E153" s="12"/>
-      <c r="F153" s="1" t="s">
+      <c r="E153" s="18"/>
+      <c r="F153" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+      <c r="A154" s="7">
         <v>25</v>
       </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="1" t="s">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+      <c r="A155" s="7">
         <v>26</v>
       </c>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="1" t="s">
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="8" t="s">
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3" t="s">
+      <c r="E158" s="6"/>
+      <c r="F158" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="1" t="s">
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="7" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="8" t="s">
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F160" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="3" t="s">
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3" t="s">
+      <c r="E162" s="6"/>
+      <c r="F162" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G162" s="6"/>
-      <c r="H162" s="12"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="18"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="1" t="s">
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G163" s="6"/>
-      <c r="H163" s="12"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="18"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="1" t="s">
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G164" s="6"/>
-      <c r="H164" s="12"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="8" t="s">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F165" s="8" t="s">
+      <c r="F165" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="17" t="s">
+      <c r="A167" s="6"/>
+      <c r="B167" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C167" s="17"/>
-      <c r="D167" s="3" t="s">
+      <c r="C167" s="13"/>
+      <c r="D167" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3" t="s">
+      <c r="E167" s="6"/>
+      <c r="F167" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G167" s="6"/>
+      <c r="G167" s="19"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="1" t="s">
+      <c r="C168" s="14"/>
+      <c r="D168" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G168" s="6"/>
+      <c r="G168" s="19"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="1" t="s">
+      <c r="C169" s="14"/>
+      <c r="D169" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G169" s="6"/>
+      <c r="G169" s="19"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="8" t="s">
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F170" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="17" t="s">
+      <c r="A172" s="6"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3" t="s">
+      <c r="E172" s="6"/>
+      <c r="F172" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G172" s="6"/>
+      <c r="G172" s="19"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="9"/>
-      <c r="C173" s="9" t="s">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G173" s="6"/>
+      <c r="G173" s="19"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="9"/>
-      <c r="C174" s="9" t="s">
+      <c r="B174" s="14"/>
+      <c r="C174" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F174" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G174" s="6"/>
+      <c r="G174" s="19"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F175" s="8" t="s">
+      <c r="F175" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3" t="s">
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3" t="s">
+      <c r="E177" s="6"/>
+      <c r="F177" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G177" s="6"/>
-      <c r="H177" s="12"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="18"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F178" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G178" s="6"/>
-      <c r="H178" s="12"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="18"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="F179" s="23" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>